--- a/admin/equipment.xlsx
+++ b/admin/equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxwal\OneDrive\Desktop\repos\2025\iot-protocols-2025\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEAFEFAC-78B6-4319-95E8-EA65ACCA506A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F900A-794B-4C82-A3E9-4EBB4486406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{919D65E8-8B2E-4124-B1ED-FE50AC8D65D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">Yong </t>
   </si>
   <si>
-    <t>Kamil Rojozinski</t>
-  </si>
-  <si>
-    <t>Tomas McGrath</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oisin </t>
+  </si>
+  <si>
+    <t>Valter</t>
+  </si>
+  <si>
+    <t>Vitalii</t>
   </si>
 </sst>
 </file>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B1B6EE-0031-4C8C-9AC0-38E36E8AA13B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -518,9 +518,17 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>

--- a/admin/equipment.xlsx
+++ b/admin/equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxwal\OneDrive\Desktop\repos\2025\iot-protocols-2025\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F900A-794B-4C82-A3E9-4EBB4486406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330C88F1-9C4C-45C3-A556-D4ADC77B38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{919D65E8-8B2E-4124-B1ED-FE50AC8D65D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Vitalii</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Kamil</t>
+  </si>
+  <si>
+    <t>Eoghan</t>
   </si>
 </sst>
 </file>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B1B6EE-0031-4C8C-9AC0-38E36E8AA13B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,6 +538,30 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -785,20 +818,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4fa34961-db85-4b4a-bce8-6d4fac0faa91" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4fa34961-db85-4b4a-bce8-6d4fac0faa91" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,6 +854,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1362C928-EDB7-4992-BCFB-C6A53F316C8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{009AC804-34FB-4AB7-A2E6-7F1CBD1BA28E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -835,12 +876,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1362C928-EDB7-4992-BCFB-C6A53F316C8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>